--- a/biology/Botanique/Beurré_Chaboceau/Beurré_Chaboceau.xlsx
+++ b/biology/Botanique/Beurré_Chaboceau/Beurré_Chaboceau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Chaboceau</t>
+          <t>Beurré_Chaboceau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beurré Chaboceau (Jefkespeer ou Jefke Javelin) est une variété de poire bronzée, assez courte.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Chaboceau</t>
+          <t>Beurré_Chaboceau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Jefkespeer est cultivée dans le doyenné des  Prémontrés ou Witherendreef  à Ninove (Flandre-Orientale, Belgique), par le prévôt Jean Pameleirre également pasteur de l'église Saint-Pierre à Denderwindeke et son jardinier Jozef (Jef) Thiébaut. On ne sait pas lequel d'entre eux a obtenu cette poire à partir de graines, mais Jef a beaucoup contribué à sa propagation. Au fil du temps, son nom a été donné au poirier.
-Lorsque la Révolution française atteint aussi la région flamande de Denderstreek, tous les biens ecclésiastiques sont vendus. Le doyenné avec son verger est acheté par le notaire Jean-François Chaboceau de Ninove[1] qui lui a donné son nom, Beurré Chaboceau. Le peuple lui a donné pour nom  « Poire de Jefke ».
+Lorsque la Révolution française atteint aussi la région flamande de Denderstreek, tous les biens ecclésiastiques sont vendus. Le doyenné avec son verger est acheté par le notaire Jean-François Chaboceau de Ninove qui lui a donné son nom, Beurré Chaboceau. Le peuple lui a donné pour nom  « Poire de Jefke ».
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Chaboceau</t>
+          <t>Beurré_Chaboceau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-L'arbre est connu pour sa grande résistance au vent, sa résistance à la tavelure et sa forte croissance.
-Fruit
-Petit fruit rugueux, trapu, bronzé, chair fine, juteuse, bonne crue mais excellente pour cuire.
-Se récolte fin-septembre, conservation 15 jours. Époque de floraison moyenne, bon pollen. Très peu sensible à la tavelure[2].
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre est connu pour sa grande résistance au vent, sa résistance à la tavelure et sa forte croissance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beurré_Chaboceau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Chaboceau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petit fruit rugueux, trapu, bronzé, chair fine, juteuse, bonne crue mais excellente pour cuire.
+Se récolte fin-septembre, conservation 15 jours. Époque de floraison moyenne, bon pollen. Très peu sensible à la tavelure.
 La poire est mûre au début d'octobre. La variété est adaptée pour la plantation d'un verger.
 </t>
         </is>
